--- a/gd/体验反馈/2016.1.21玩家体验问题总结.xlsx
+++ b/gd/体验反馈/2016.1.21玩家体验问题总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1560" windowWidth="32620" windowHeight="18180"/>
+    <workbookView xWindow="2520" yWindow="320" windowWidth="33720" windowHeight="18180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="203">
   <si>
     <t>体验问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,6 +604,151 @@
   </si>
   <si>
     <t>速度回调快一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>小星， 老李</t>
+  </si>
+  <si>
+    <t>副本选择</t>
+  </si>
+  <si>
+    <t>技能成长</t>
+  </si>
+  <si>
+    <t>技能按等级开放</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>出手方法概率算法</t>
+  </si>
+  <si>
+    <t>删掉防御为通用技能</t>
+  </si>
+  <si>
+    <t>1-2章 怪物投放和佈怪方案，早期避免在商店投放</t>
+  </si>
+  <si>
+    <t>Max 数值问题</t>
+  </si>
+  <si>
+    <t>潘神设计</t>
+  </si>
+  <si>
+    <t>不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1章玩法保持， 2章玩法先问号，后统一样式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星出需求，颜色突出属性，内容跟特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子出需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子问问师叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔时间长一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震血条，考虑升格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔时间尽量缩短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都不要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调小，挂施法位置看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出需求先试试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认扣体力逻辑，是否弹结算，奖励没有。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个回合，按大招不出， 不扣能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望凸显属性相克和职业，不需要按tips看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率成功升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投放怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +756,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,13 +787,37 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -660,12 +829,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,8 +898,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -964,7 +1203,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -998,7 +1237,7 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1031,7 +1270,7 @@
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1045,7 +1284,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1083,7 +1322,7 @@
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1151,7 +1390,7 @@
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1187,7 +1426,7 @@
       <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1215,7 +1454,7 @@
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1251,7 +1490,7 @@
       <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="5" t="s">
         <v>155</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -1273,6 +1512,9 @@
       <c r="D47" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="D48" s="2" t="s">
@@ -1297,7 +1539,7 @@
       <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -1479,6 +1721,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1489,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" zoomScalePageLayoutView="230" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A26" zoomScale="230" zoomScaleNormal="230" zoomScalePageLayoutView="230" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1503,7 +1746,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -1514,7 +1757,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32">
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -1522,7 +1765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32">
+    <row r="4" spans="1:4" ht="32">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -1530,7 +1773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -1538,7 +1781,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -1546,7 +1789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
@@ -1554,20 +1797,23 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="32">
+      <c r="A8" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32">
+    <row r="11" spans="1:4" ht="32">
       <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
@@ -1575,7 +1821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32">
+    <row r="12" spans="1:4" ht="32">
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
@@ -1583,7 +1829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32">
+    <row r="13" spans="1:4" ht="32">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
@@ -1591,7 +1837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -1599,7 +1845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32">
+    <row r="15" spans="1:4" ht="32">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
@@ -1607,7 +1853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32">
+    <row r="16" spans="1:4" ht="32">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1728,6 +1974,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1738,121 +1985,365 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A2:E37"/>
   <sheetViews>
     <sheetView zoomScale="227" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="58.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="58.1640625" style="2"/>
-    <col min="2" max="16384" width="58.1640625" style="1"/>
+    <col min="1" max="1" width="42.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="58.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="32">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32">
+      <c r="A16" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>136</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="48">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="E34" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="32">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="32">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="32">
+      <c r="A37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/gd/体验反馈/2016.1.21玩家体验问题总结.xlsx
+++ b/gd/体验反馈/2016.1.21玩家体验问题总结.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="320" windowWidth="33720" windowHeight="18180"/>
+    <workbookView xWindow="2520" yWindow="315" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="206">
   <si>
     <t>体验问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,6 +749,18 @@
   </si>
   <si>
     <t>投放怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号位饰品建议关卡极少投放，商店少量投放，保持玩家对装备的饥渴感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四只怪是否一定需要是坦克？如果改为是一个3星怪DPS可能前期感受会更好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议加入一个培养奖励系统，每个不同种类的怪物在第一次升级到指定等级时会有成就，鼓励玩家培养新到手的怪物，然后通过数值和投放控制，在玩家接近第一次10连抽需要的钻石时投放礼包等。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,6 +918,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -914,15 +927,14 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1192,7 +1204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1202,20 +1214,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="180" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="52.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="48.1640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="52.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="48.125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>137</v>
       </c>
@@ -1252,7 +1264,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1289,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1302,12 +1314,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1318,7 +1330,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1340,22 +1352,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D22" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -1369,7 +1381,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32">
+    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>9</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32">
+    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -1408,7 +1420,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="32">
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>13</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="32">
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>14</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>15</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -1483,7 +1495,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="32">
+    <row r="46" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>18</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="64">
+    <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.15">
       <c r="D47" s="2" t="s">
         <v>33</v>
       </c>
@@ -1516,12 +1528,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D48" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>19</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="32">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>20</v>
       </c>
@@ -1546,7 +1558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>21</v>
       </c>
@@ -1557,7 +1569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>22</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>23</v>
       </c>
@@ -1576,7 +1588,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>24</v>
       </c>
@@ -1587,7 +1599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>25</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="32">
+    <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>26</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>27</v>
       </c>
@@ -1620,17 +1632,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="32">
+    <row r="67" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>28</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="32">
+    <row r="72" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>29</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>30</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>31</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>32</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>33</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>34</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>35</v>
       </c>
@@ -1738,15 +1750,15 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="54.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
     <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="32">
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32">
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
@@ -1797,7 +1809,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32">
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>97</v>
       </c>
@@ -1808,12 +1820,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32">
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32">
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32">
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
@@ -1837,7 +1849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32">
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
@@ -1853,7 +1865,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32">
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1861,12 +1873,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32">
+    <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -1890,12 +1902,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="48">
+    <row r="27" spans="1:3" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -1911,12 +1923,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="32">
+    <row r="31" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -1924,12 +1936,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -1937,12 +1949,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>87</v>
       </c>
@@ -1950,12 +1962,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32">
+    <row r="39" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32">
+    <row r="40" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>89</v>
       </c>
@@ -1963,7 +1975,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>67</v>
       </c>
@@ -1985,21 +1997,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E37"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView zoomScale="227" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="58.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="58.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="58.1640625" style="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.125" style="2"/>
+    <col min="6" max="16384" width="58.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -2007,7 +2021,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>117</v>
       </c>
@@ -2015,7 +2029,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>118</v>
       </c>
@@ -2026,7 +2040,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -2034,7 +2048,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>120</v>
       </c>
@@ -2045,7 +2059,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -2056,7 +2070,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>122</v>
       </c>
@@ -2064,7 +2078,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -2075,7 +2089,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -2086,7 +2100,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -2097,7 +2111,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -2108,7 +2122,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -2130,7 +2144,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -2141,7 +2155,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32">
+    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>130</v>
       </c>
@@ -2152,7 +2166,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>131</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>132</v>
       </c>
@@ -2174,7 +2188,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>133</v>
       </c>
@@ -2182,7 +2196,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
@@ -2193,7 +2207,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
@@ -2201,7 +2215,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>136</v>
       </c>
@@ -2212,7 +2226,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
@@ -2223,12 +2237,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>199</v>
       </c>
@@ -2236,7 +2250,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>168</v>
       </c>
@@ -2247,7 +2261,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>169</v>
       </c>
@@ -2258,7 +2272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>170</v>
       </c>
@@ -2266,7 +2280,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>171</v>
       </c>
@@ -2274,12 +2288,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>173</v>
       </c>
@@ -2287,12 +2304,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48">
+    <row r="33" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -2303,7 +2320,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -2311,11 +2328,11 @@
         <v>202</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2325,8 +2342,11 @@
       <c r="D35" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="32">
+      <c r="E35" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -2335,7 +2355,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="32">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>97</v>
       </c>
@@ -2344,6 +2364,11 @@
       </c>
       <c r="D37" s="1" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="E38" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
